--- a/public/products.xlsx
+++ b/public/products.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OSPanel\domains\tms-project\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB14293-AF87-4CE6-944E-008737AC7B82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434EAC0B-4870-418E-BD37-9E4D6CC06CE1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>Image</t>
-  </si>
-  <si>
-    <t>Активен</t>
   </si>
   <si>
     <t>similique</t>
@@ -404,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -432,27 +429,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>40</v>
       </c>
       <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
       </c>
       <c r="E2">
         <v>12</v>
@@ -463,11 +460,11 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
